--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -228,6 +228,21 @@
   </si>
   <si>
     <t>Estimados:&lt;br&gt;&lt;br&gt;Se adjunta detalle de Rava con informacion de fecha &lt;DATE&gt;.&lt;br&gt;&lt;br&gt;Saludos.&lt;br&gt;Agnostic RPA bot.</t>
+  </si>
+  <si>
+    <t>ExceptionMail_Asunto</t>
+  </si>
+  <si>
+    <t>ExceptionMail_Cuerpo</t>
+  </si>
+  <si>
+    <t>Estimados:&lt;br&gt;&lt;br&gt;Se encontró una excepción inesperada durante la ejecución del bot y tuvo que ser detenido.&lt;br&gt;Detalles a continuacion: &lt;br&gt;&lt;br&gt;&lt;EXCEPTION&gt;&lt;br&gt;&lt;br&gt;En caso de tener dudas o preguntas, por favor comuniquese con el equipo de RPA.&lt;br&gt;Saludos.&lt;br&gt;Agnostic RPA bot.</t>
+  </si>
+  <si>
+    <t>Replace &lt;EXCEPTION&gt; with exception details (message, source, etc)</t>
+  </si>
+  <si>
+    <t>Resumen RAVA &lt;DATE&gt; - Error encontrado en ejecución</t>
   </si>
 </sst>
 </file>
@@ -1746,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1957,8 +1972,25 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
